--- a/Code/Results/Cases/Case_2_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029167147574727</v>
+        <v>1.050144795270566</v>
       </c>
       <c r="D2">
-        <v>1.046712395387608</v>
+        <v>1.057177983285805</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.04788099922796</v>
+        <v>1.064702124603033</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061536479792696</v>
+        <v>1.048915766747342</v>
       </c>
       <c r="J2">
-        <v>1.050509146296013</v>
+        <v>1.055179501004725</v>
       </c>
       <c r="K2">
-        <v>1.057557163944643</v>
+        <v>1.059913665615101</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.058711268437624</v>
+        <v>1.067417349171799</v>
       </c>
       <c r="N2">
-        <v>1.02007319636205</v>
+        <v>1.022154257867351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.034380916252517</v>
+        <v>1.051201983916221</v>
       </c>
       <c r="D3">
-        <v>1.050953003577151</v>
+        <v>1.058053607784603</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.052822771106135</v>
+        <v>1.065758795710461</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063634877519358</v>
+        <v>1.049263441346406</v>
       </c>
       <c r="J3">
-        <v>1.053976267861283</v>
+        <v>1.055885727573932</v>
       </c>
       <c r="K3">
-        <v>1.060972938945983</v>
+        <v>1.060602917881396</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.062821605070575</v>
+        <v>1.068288672234229</v>
       </c>
       <c r="N3">
-        <v>1.021271822702323</v>
+        <v>1.022394941985281</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037675707802041</v>
+        <v>1.051885866789486</v>
       </c>
       <c r="D4">
-        <v>1.053634937867861</v>
+        <v>1.058620003244672</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.055951171761739</v>
+        <v>1.066442759436675</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064949758165249</v>
+        <v>1.049486983013634</v>
       </c>
       <c r="J4">
-        <v>1.056162412273482</v>
+        <v>1.056341921089158</v>
       </c>
       <c r="K4">
-        <v>1.063126422174484</v>
+        <v>1.06104807873897</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.065418145209925</v>
+        <v>1.068852099296417</v>
       </c>
       <c r="N4">
-        <v>1.02202710934006</v>
+        <v>1.022550282735972</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039042714938332</v>
+        <v>1.05217332636557</v>
       </c>
       <c r="D5">
-        <v>1.05474813052087</v>
+        <v>1.058858069695607</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.057250423323335</v>
+        <v>1.066730352073675</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065492579232686</v>
+        <v>1.049580618286837</v>
       </c>
       <c r="J5">
-        <v>1.057068239215759</v>
+        <v>1.056533517606057</v>
       </c>
       <c r="K5">
-        <v>1.06401864030819</v>
+        <v>1.061235025275306</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.066495180432244</v>
+        <v>1.069088873709596</v>
       </c>
       <c r="N5">
-        <v>1.022339936358387</v>
+        <v>1.022615492664159</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039271199891213</v>
+        <v>1.052221589479754</v>
       </c>
       <c r="D6">
-        <v>1.054934217916145</v>
+        <v>1.058898039385171</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.057467657612324</v>
+        <v>1.066778643325573</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065583146512255</v>
+        <v>1.049596320026911</v>
       </c>
       <c r="J6">
-        <v>1.05721956964507</v>
+        <v>1.05656567652602</v>
       </c>
       <c r="K6">
-        <v>1.064167692549302</v>
+        <v>1.061266402745626</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.066675181873602</v>
+        <v>1.069128623878341</v>
       </c>
       <c r="N6">
-        <v>1.022392190679282</v>
+        <v>1.02262643610681</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037694044060312</v>
+        <v>1.051889708013831</v>
       </c>
       <c r="D7">
-        <v>1.053649867849601</v>
+        <v>1.058623184482031</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.055968594175188</v>
+        <v>1.066446602050287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064957050070698</v>
+        <v>1.04948823551517</v>
       </c>
       <c r="J7">
-        <v>1.056174567323002</v>
+        <v>1.056344481946847</v>
       </c>
       <c r="K7">
-        <v>1.063138394919712</v>
+        <v>1.061050577510068</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.065432593060104</v>
+        <v>1.068855263442644</v>
       </c>
       <c r="N7">
-        <v>1.022031307587835</v>
+        <v>1.022551154448839</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.030945965098207</v>
+        <v>1.050502116490944</v>
       </c>
       <c r="D8">
-        <v>1.048158716001218</v>
+        <v>1.057473944349079</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.049565838790244</v>
+        <v>1.065059184563625</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062254730069646</v>
+        <v>1.049033560482141</v>
       </c>
       <c r="J8">
-        <v>1.051693049983198</v>
+        <v>1.055418335589444</v>
       </c>
       <c r="K8">
-        <v>1.058723590081405</v>
+        <v>1.060146773780228</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.06011379439821</v>
+        <v>1.067711894977955</v>
       </c>
       <c r="N8">
-        <v>1.020482584761137</v>
+        <v>1.022235680564294</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.018414498251176</v>
+        <v>1.048055536547168</v>
       </c>
       <c r="D9">
-        <v>1.037980863571256</v>
+        <v>1.055447373112635</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.037721603161349</v>
+        <v>1.062616115616497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057148693664408</v>
+        <v>1.048221435426098</v>
       </c>
       <c r="J9">
-        <v>1.043333340757739</v>
+        <v>1.053780353271788</v>
       </c>
       <c r="K9">
-        <v>1.050486381301094</v>
+        <v>1.058547789368723</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.050230946373108</v>
+        <v>1.065694244674441</v>
       </c>
       <c r="N9">
-        <v>1.017590060540365</v>
+        <v>1.021676729322043</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009574432281923</v>
+        <v>1.046423466579713</v>
       </c>
       <c r="D10">
-        <v>1.030817994448068</v>
+        <v>1.054095350129147</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.029400483951953</v>
+        <v>1.060988568694166</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053489885441483</v>
+        <v>1.047672668468442</v>
       </c>
       <c r="J10">
-        <v>1.037413262458142</v>
+        <v>1.052684328683333</v>
       </c>
       <c r="K10">
-        <v>1.044652255268207</v>
+        <v>1.057477518005638</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.04325844652595</v>
+        <v>1.064347199167559</v>
       </c>
       <c r="N10">
-        <v>1.015539770031493</v>
+        <v>1.021302049057362</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005617727196323</v>
+        <v>1.045716513338072</v>
       </c>
       <c r="D11">
-        <v>1.027616882849521</v>
+        <v>1.053509678714815</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.025684888872304</v>
+        <v>1.060284097721716</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051839374282667</v>
+        <v>1.047433301970376</v>
       </c>
       <c r="J11">
-        <v>1.034758655293108</v>
+        <v>1.05220877834077</v>
       </c>
       <c r="K11">
-        <v>1.042036124345285</v>
+        <v>1.057013062019431</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.040138154091538</v>
+        <v>1.063763450585401</v>
       </c>
       <c r="N11">
-        <v>1.014620076407099</v>
+        <v>1.021139323149687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.004127385338198</v>
+        <v>1.04545388015437</v>
       </c>
       <c r="D12">
-        <v>1.026411962479946</v>
+        <v>1.053292098693981</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.024286758897045</v>
+        <v>1.060022465774871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051215810536192</v>
+        <v>1.047344127998663</v>
       </c>
       <c r="J12">
-        <v>1.03375808819638</v>
+        <v>1.052031992576221</v>
       </c>
       <c r="K12">
-        <v>1.041050061042001</v>
+        <v>1.056840388729835</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.038962999696172</v>
+        <v>1.063546549659203</v>
       </c>
       <c r="N12">
-        <v>1.014273389548857</v>
+        <v>1.021078806321854</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004448024748938</v>
+        <v>1.045510217653585</v>
       </c>
       <c r="D13">
-        <v>1.026671156614257</v>
+        <v>1.053338771957857</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.02458749526315</v>
+        <v>1.06007858491252</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051350050986771</v>
+        <v>1.047363268003952</v>
       </c>
       <c r="J13">
-        <v>1.033973384755057</v>
+        <v>1.052069920297869</v>
       </c>
       <c r="K13">
-        <v>1.041262236500664</v>
+        <v>1.056877434693097</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.039215820619427</v>
+        <v>1.063593078848049</v>
       </c>
       <c r="N13">
-        <v>1.014347989293836</v>
+        <v>1.021091790698935</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005494964029535</v>
+        <v>1.045694804802869</v>
       </c>
       <c r="D14">
-        <v>1.027517613460765</v>
+        <v>1.053491694208509</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.025569692693197</v>
+        <v>1.060262470330158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051788047603073</v>
+        <v>1.047425936179882</v>
       </c>
       <c r="J14">
-        <v>1.034676249518246</v>
+        <v>1.052194168137929</v>
       </c>
       <c r="K14">
-        <v>1.041954912992901</v>
+        <v>1.056998791927149</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.040041350418995</v>
+        <v>1.063745522931128</v>
       </c>
       <c r="N14">
-        <v>1.014591524318645</v>
+        <v>1.021134322302863</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.006137241989763</v>
+        <v>1.045808529810199</v>
       </c>
       <c r="D15">
-        <v>1.028037009401364</v>
+        <v>1.053585909938113</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.02617243855462</v>
+        <v>1.060375773489359</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05205650472518</v>
+        <v>1.047464513309953</v>
       </c>
       <c r="J15">
-        <v>1.035107356597573</v>
+        <v>1.052270702084546</v>
       </c>
       <c r="K15">
-        <v>1.042379771559798</v>
+        <v>1.0570735437574</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.040547818501798</v>
+        <v>1.063839439384526</v>
       </c>
       <c r="N15">
-        <v>1.014740893505895</v>
+        <v>1.021160517729699</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.009834203274793</v>
+        <v>1.046470379273719</v>
       </c>
       <c r="D16">
-        <v>1.031028266832102</v>
+        <v>1.054134214224808</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.029644614529337</v>
+        <v>1.061035327727808</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053597984032873</v>
+        <v>1.047688517618023</v>
       </c>
       <c r="J16">
-        <v>1.037587449811568</v>
+        <v>1.0527158690482</v>
       </c>
       <c r="K16">
-        <v>1.044823917500318</v>
+        <v>1.057508320882614</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.043463320281627</v>
+        <v>1.064385930735972</v>
       </c>
       <c r="N16">
-        <v>1.015600111647874</v>
+        <v>1.021312838379181</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012117830151656</v>
+        <v>1.046885470816928</v>
       </c>
       <c r="D17">
-        <v>1.032877320903824</v>
+        <v>1.05447808765996</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.031791758382849</v>
+        <v>1.061449120131841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054546815588717</v>
+        <v>1.047828561824449</v>
       </c>
       <c r="J17">
-        <v>1.039118172679802</v>
+        <v>1.052994852102362</v>
       </c>
       <c r="K17">
-        <v>1.046332443999139</v>
+        <v>1.057780771482699</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.045264415464443</v>
+        <v>1.064728604584494</v>
       </c>
       <c r="N17">
-        <v>1.016130345504424</v>
+        <v>1.02140825472405</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013437486367174</v>
+        <v>1.047127562026757</v>
       </c>
       <c r="D18">
-        <v>1.033946305303488</v>
+        <v>1.054678640397146</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.033033375288618</v>
+        <v>1.061690504076137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055093902319935</v>
+        <v>1.047910078712234</v>
       </c>
       <c r="J18">
-        <v>1.040002280108172</v>
+        <v>1.053157485160917</v>
       </c>
       <c r="K18">
-        <v>1.04720372440767</v>
+        <v>1.057939588769153</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.046305271586027</v>
+        <v>1.064928435209118</v>
       </c>
       <c r="N18">
-        <v>1.016436563654376</v>
+        <v>1.021463862488947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.013885398245523</v>
+        <v>1.04721010471345</v>
       </c>
       <c r="D19">
-        <v>1.034309210605445</v>
+        <v>1.054747019828428</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.033454938468691</v>
+        <v>1.061772814153385</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055279383268187</v>
+        <v>1.047937845283958</v>
       </c>
       <c r="J19">
-        <v>1.040302279957565</v>
+        <v>1.053212923059308</v>
       </c>
       <c r="K19">
-        <v>1.04749937022508</v>
+        <v>1.05799372465172</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.046658559968648</v>
+        <v>1.064996564623229</v>
       </c>
       <c r="N19">
-        <v>1.016540465466304</v>
+        <v>1.021482815332982</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.011874104369335</v>
+        <v>1.046840937979394</v>
       </c>
       <c r="D20">
-        <v>1.032679927888172</v>
+        <v>1.054441195655284</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.031562512352015</v>
+        <v>1.06140472145241</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054445675586396</v>
+        <v>1.047813553839247</v>
       </c>
       <c r="J20">
-        <v>1.03895485011857</v>
+        <v>1.052964929486165</v>
       </c>
       <c r="K20">
-        <v>1.046171490353606</v>
+        <v>1.057751550305437</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.045072184061616</v>
+        <v>1.064691843603987</v>
       </c>
       <c r="N20">
-        <v>1.016073774700033</v>
+        <v>1.02139802231227</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.005187247258932</v>
+        <v>1.045640449578542</v>
       </c>
       <c r="D21">
-        <v>1.027268799383816</v>
+        <v>1.053446663399733</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.02528096594238</v>
+        <v>1.060208319557496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051659362681398</v>
+        <v>1.047407489214283</v>
       </c>
       <c r="J21">
-        <v>1.034469681424498</v>
+        <v>1.05215758425624</v>
       </c>
       <c r="K21">
-        <v>1.041751339042921</v>
+        <v>1.056963059489745</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.039798705944808</v>
+        <v>1.063700633902233</v>
       </c>
       <c r="N21">
-        <v>1.0145199516831</v>
+        <v>1.021121799825972</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000862789218997</v>
+        <v>1.04488542726557</v>
       </c>
       <c r="D22">
-        <v>1.023774182901603</v>
+        <v>1.052821155616698</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.021226799194878</v>
+        <v>1.059456325144076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049846500179483</v>
+        <v>1.047150660885262</v>
       </c>
       <c r="J22">
-        <v>1.031565160109705</v>
+        <v>1.051649134076204</v>
       </c>
       <c r="K22">
-        <v>1.038888936410431</v>
+        <v>1.056466414910661</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.036389160056416</v>
+        <v>1.063077011782234</v>
       </c>
       <c r="N22">
-        <v>1.013513502458643</v>
+        <v>1.020947704370785</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003167113766812</v>
+        <v>1.045285700716057</v>
       </c>
       <c r="D23">
-        <v>1.025635837620304</v>
+        <v>1.053152768657738</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.023386304116681</v>
+        <v>1.059854949808335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050813507769609</v>
+        <v>1.047286954515853</v>
       </c>
       <c r="J23">
-        <v>1.033113209263162</v>
+        <v>1.051918752875603</v>
       </c>
       <c r="K23">
-        <v>1.04041453187184</v>
+        <v>1.05672977994295</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.038205861417545</v>
+        <v>1.063407644542844</v>
       </c>
       <c r="N23">
-        <v>1.014049935741133</v>
+        <v>1.021040035811134</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011984271613825</v>
+        <v>1.0468610605277</v>
       </c>
       <c r="D24">
-        <v>1.032769150700865</v>
+        <v>1.054457865634568</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.031666131985769</v>
+        <v>1.061424783224505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054491395985429</v>
+        <v>1.047820335822362</v>
       </c>
       <c r="J24">
-        <v>1.039028675493675</v>
+        <v>1.052978450515716</v>
       </c>
       <c r="K24">
-        <v>1.046244244949334</v>
+        <v>1.057764754401943</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.045159075040673</v>
+        <v>1.064708454448304</v>
       </c>
       <c r="N24">
-        <v>1.016099346042014</v>
+        <v>1.021402646043802</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.021735495170116</v>
+        <v>1.048688213046016</v>
       </c>
       <c r="D25">
-        <v>1.040675501327593</v>
+        <v>1.05597146288888</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.040854838713065</v>
+        <v>1.063247501822515</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058511810395849</v>
+        <v>1.048432684615081</v>
       </c>
       <c r="J25">
-        <v>1.045552878996118</v>
+        <v>1.054204521935244</v>
       </c>
       <c r="K25">
-        <v>1.052673570545695</v>
+        <v>1.058961919765874</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.05285039268352</v>
+        <v>1.066216198291762</v>
       </c>
       <c r="N25">
-        <v>1.018358401664999</v>
+        <v>1.021821592388107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_163/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_163/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050144795270566</v>
+        <v>1.029167147574727</v>
       </c>
       <c r="D2">
-        <v>1.057177983285805</v>
+        <v>1.046712395387607</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.064702124603033</v>
+        <v>1.04788099922796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048915766747342</v>
+        <v>1.061536479792696</v>
       </c>
       <c r="J2">
-        <v>1.055179501004725</v>
+        <v>1.050509146296013</v>
       </c>
       <c r="K2">
-        <v>1.059913665615101</v>
+        <v>1.057557163944643</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.067417349171799</v>
+        <v>1.058711268437623</v>
       </c>
       <c r="N2">
-        <v>1.022154257867351</v>
+        <v>1.02007319636205</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051201983916221</v>
+        <v>1.034380916252517</v>
       </c>
       <c r="D3">
-        <v>1.058053607784603</v>
+        <v>1.050953003577151</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.065758795710461</v>
+        <v>1.052822771106135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049263441346406</v>
+        <v>1.063634877519357</v>
       </c>
       <c r="J3">
-        <v>1.055885727573932</v>
+        <v>1.053976267861283</v>
       </c>
       <c r="K3">
-        <v>1.060602917881396</v>
+        <v>1.060972938945983</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.068288672234229</v>
+        <v>1.062821605070575</v>
       </c>
       <c r="N3">
-        <v>1.022394941985281</v>
+        <v>1.021271822702323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051885866789486</v>
+        <v>1.037675707802042</v>
       </c>
       <c r="D4">
-        <v>1.058620003244672</v>
+        <v>1.053634937867862</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.066442759436675</v>
+        <v>1.05595117176174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049486983013634</v>
+        <v>1.064949758165249</v>
       </c>
       <c r="J4">
-        <v>1.056341921089158</v>
+        <v>1.056162412273483</v>
       </c>
       <c r="K4">
-        <v>1.06104807873897</v>
+        <v>1.063126422174485</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.068852099296417</v>
+        <v>1.065418145209926</v>
       </c>
       <c r="N4">
-        <v>1.022550282735972</v>
+        <v>1.02202710934006</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05217332636557</v>
+        <v>1.039042714938331</v>
       </c>
       <c r="D5">
-        <v>1.058858069695607</v>
+        <v>1.05474813052087</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.066730352073675</v>
+        <v>1.057250423323334</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049580618286837</v>
+        <v>1.065492579232685</v>
       </c>
       <c r="J5">
-        <v>1.056533517606057</v>
+        <v>1.057068239215759</v>
       </c>
       <c r="K5">
-        <v>1.061235025275306</v>
+        <v>1.064018640308189</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.069088873709596</v>
+        <v>1.066495180432244</v>
       </c>
       <c r="N5">
-        <v>1.022615492664159</v>
+        <v>1.022339936358387</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052221589479754</v>
+        <v>1.039271199891215</v>
       </c>
       <c r="D6">
-        <v>1.058898039385171</v>
+        <v>1.054934217916147</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.066778643325573</v>
+        <v>1.057467657612327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049596320026911</v>
+        <v>1.065583146512257</v>
       </c>
       <c r="J6">
-        <v>1.05656567652602</v>
+        <v>1.057219569645073</v>
       </c>
       <c r="K6">
-        <v>1.061266402745626</v>
+        <v>1.064167692549304</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.069128623878341</v>
+        <v>1.066675181873605</v>
       </c>
       <c r="N6">
-        <v>1.02262643610681</v>
+        <v>1.022392190679283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051889708013831</v>
+        <v>1.037694044060314</v>
       </c>
       <c r="D7">
-        <v>1.058623184482031</v>
+        <v>1.053649867849603</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.066446602050287</v>
+        <v>1.05596859417519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04948823551517</v>
+        <v>1.0649570500707</v>
       </c>
       <c r="J7">
-        <v>1.056344481946847</v>
+        <v>1.056174567323004</v>
       </c>
       <c r="K7">
-        <v>1.061050577510068</v>
+        <v>1.063138394919714</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.068855263442644</v>
+        <v>1.065432593060105</v>
       </c>
       <c r="N7">
-        <v>1.022551154448839</v>
+        <v>1.022031307587836</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050502116490944</v>
+        <v>1.030945965098207</v>
       </c>
       <c r="D8">
-        <v>1.057473944349079</v>
+        <v>1.048158716001218</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.065059184563625</v>
+        <v>1.049565838790244</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049033560482141</v>
+        <v>1.062254730069646</v>
       </c>
       <c r="J8">
-        <v>1.055418335589444</v>
+        <v>1.051693049983197</v>
       </c>
       <c r="K8">
-        <v>1.060146773780228</v>
+        <v>1.058723590081405</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.067711894977955</v>
+        <v>1.06011379439821</v>
       </c>
       <c r="N8">
-        <v>1.022235680564294</v>
+        <v>1.020482584761137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.048055536547168</v>
+        <v>1.018414498251177</v>
       </c>
       <c r="D9">
-        <v>1.055447373112635</v>
+        <v>1.037980863571256</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.062616115616497</v>
+        <v>1.037721603161349</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048221435426098</v>
+        <v>1.057148693664409</v>
       </c>
       <c r="J9">
-        <v>1.053780353271788</v>
+        <v>1.043333340757739</v>
       </c>
       <c r="K9">
-        <v>1.058547789368723</v>
+        <v>1.050486381301094</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.065694244674441</v>
+        <v>1.050230946373108</v>
       </c>
       <c r="N9">
-        <v>1.021676729322043</v>
+        <v>1.017590060540364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046423466579713</v>
+        <v>1.009574432281922</v>
       </c>
       <c r="D10">
-        <v>1.054095350129147</v>
+        <v>1.030817994448067</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.060988568694166</v>
+        <v>1.029400483951952</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047672668468442</v>
+        <v>1.053489885441482</v>
       </c>
       <c r="J10">
-        <v>1.052684328683333</v>
+        <v>1.037413262458142</v>
       </c>
       <c r="K10">
-        <v>1.057477518005638</v>
+        <v>1.044652255268206</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.064347199167559</v>
+        <v>1.04325844652595</v>
       </c>
       <c r="N10">
-        <v>1.021302049057362</v>
+        <v>1.015539770031492</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045716513338072</v>
+        <v>1.005617727196323</v>
       </c>
       <c r="D11">
-        <v>1.053509678714815</v>
+        <v>1.027616882849521</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.060284097721716</v>
+        <v>1.025684888872303</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047433301970376</v>
+        <v>1.051839374282667</v>
       </c>
       <c r="J11">
-        <v>1.05220877834077</v>
+        <v>1.034758655293107</v>
       </c>
       <c r="K11">
-        <v>1.057013062019431</v>
+        <v>1.042036124345285</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.063763450585401</v>
+        <v>1.040138154091538</v>
       </c>
       <c r="N11">
-        <v>1.021139323149687</v>
+        <v>1.014620076407099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04545388015437</v>
+        <v>1.004127385338198</v>
       </c>
       <c r="D12">
-        <v>1.053292098693981</v>
+        <v>1.026411962479945</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.060022465774871</v>
+        <v>1.024286758897045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047344127998663</v>
+        <v>1.051215810536192</v>
       </c>
       <c r="J12">
-        <v>1.052031992576221</v>
+        <v>1.03375808819638</v>
       </c>
       <c r="K12">
-        <v>1.056840388729835</v>
+        <v>1.041050061042001</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.063546549659203</v>
+        <v>1.038962999696172</v>
       </c>
       <c r="N12">
-        <v>1.021078806321854</v>
+        <v>1.014273389548857</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045510217653585</v>
+        <v>1.004448024748938</v>
       </c>
       <c r="D13">
-        <v>1.053338771957857</v>
+        <v>1.026671156614258</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.06007858491252</v>
+        <v>1.024587495263151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047363268003952</v>
+        <v>1.051350050986771</v>
       </c>
       <c r="J13">
-        <v>1.052069920297869</v>
+        <v>1.033973384755058</v>
       </c>
       <c r="K13">
-        <v>1.056877434693097</v>
+        <v>1.041262236500665</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.063593078848049</v>
+        <v>1.039215820619428</v>
       </c>
       <c r="N13">
-        <v>1.021091790698935</v>
+        <v>1.014347989293836</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045694804802869</v>
+        <v>1.005494964029534</v>
       </c>
       <c r="D14">
-        <v>1.053491694208509</v>
+        <v>1.027517613460764</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.060262470330158</v>
+        <v>1.025569692693196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047425936179882</v>
+        <v>1.051788047603073</v>
       </c>
       <c r="J14">
-        <v>1.052194168137929</v>
+        <v>1.034676249518245</v>
       </c>
       <c r="K14">
-        <v>1.056998791927149</v>
+        <v>1.0419549129929</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.063745522931128</v>
+        <v>1.040041350418994</v>
       </c>
       <c r="N14">
-        <v>1.021134322302863</v>
+        <v>1.014591524318645</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045808529810199</v>
+        <v>1.006137241989765</v>
       </c>
       <c r="D15">
-        <v>1.053585909938113</v>
+        <v>1.028037009401365</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.060375773489359</v>
+        <v>1.026172438554622</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047464513309953</v>
+        <v>1.052056504725181</v>
       </c>
       <c r="J15">
-        <v>1.052270702084546</v>
+        <v>1.035107356597574</v>
       </c>
       <c r="K15">
-        <v>1.0570735437574</v>
+        <v>1.042379771559799</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.063839439384526</v>
+        <v>1.0405478185018</v>
       </c>
       <c r="N15">
-        <v>1.021160517729699</v>
+        <v>1.014740893505896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046470379273719</v>
+        <v>1.009834203274792</v>
       </c>
       <c r="D16">
-        <v>1.054134214224808</v>
+        <v>1.0310282668321</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.061035327727808</v>
+        <v>1.029644614529335</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047688517618023</v>
+        <v>1.053597984032873</v>
       </c>
       <c r="J16">
-        <v>1.0527158690482</v>
+        <v>1.037587449811567</v>
       </c>
       <c r="K16">
-        <v>1.057508320882614</v>
+        <v>1.044823917500317</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.064385930735972</v>
+        <v>1.043463320281626</v>
       </c>
       <c r="N16">
-        <v>1.021312838379181</v>
+        <v>1.015600111647874</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046885470816928</v>
+        <v>1.012117830151658</v>
       </c>
       <c r="D17">
-        <v>1.05447808765996</v>
+        <v>1.032877320903826</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.061449120131841</v>
+        <v>1.03179175838285</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047828561824449</v>
+        <v>1.054546815588718</v>
       </c>
       <c r="J17">
-        <v>1.052994852102362</v>
+        <v>1.039118172679803</v>
       </c>
       <c r="K17">
-        <v>1.057780771482699</v>
+        <v>1.04633244399914</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.064728604584494</v>
+        <v>1.045264415464444</v>
       </c>
       <c r="N17">
-        <v>1.02140825472405</v>
+        <v>1.016130345504425</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.047127562026757</v>
+        <v>1.013437486367172</v>
       </c>
       <c r="D18">
-        <v>1.054678640397146</v>
+        <v>1.033946305303487</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.061690504076137</v>
+        <v>1.033033375288618</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047910078712234</v>
+        <v>1.055093902319935</v>
       </c>
       <c r="J18">
-        <v>1.053157485160917</v>
+        <v>1.040002280108172</v>
       </c>
       <c r="K18">
-        <v>1.057939588769153</v>
+        <v>1.047203724407669</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.064928435209118</v>
+        <v>1.046305271586027</v>
       </c>
       <c r="N18">
-        <v>1.021463862488947</v>
+        <v>1.016436563654376</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04721010471345</v>
+        <v>1.013885398245523</v>
       </c>
       <c r="D19">
-        <v>1.054747019828428</v>
+        <v>1.034309210605446</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.061772814153385</v>
+        <v>1.033454938468692</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047937845283958</v>
+        <v>1.055279383268188</v>
       </c>
       <c r="J19">
-        <v>1.053212923059308</v>
+        <v>1.040302279957566</v>
       </c>
       <c r="K19">
-        <v>1.05799372465172</v>
+        <v>1.04749937022508</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.064996564623229</v>
+        <v>1.046658559968649</v>
       </c>
       <c r="N19">
-        <v>1.021482815332982</v>
+        <v>1.016540465466304</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046840937979394</v>
+        <v>1.011874104369338</v>
       </c>
       <c r="D20">
-        <v>1.054441195655284</v>
+        <v>1.032679927888174</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.06140472145241</v>
+        <v>1.031562512352017</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047813553839247</v>
+        <v>1.054445675586397</v>
       </c>
       <c r="J20">
-        <v>1.052964929486165</v>
+        <v>1.038954850118572</v>
       </c>
       <c r="K20">
-        <v>1.057751550305437</v>
+        <v>1.046171490353609</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.064691843603987</v>
+        <v>1.045072184061619</v>
       </c>
       <c r="N20">
-        <v>1.02139802231227</v>
+        <v>1.016073774700034</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045640449578542</v>
+        <v>1.005187247258932</v>
       </c>
       <c r="D21">
-        <v>1.053446663399733</v>
+        <v>1.027268799383816</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.060208319557496</v>
+        <v>1.025280965942379</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047407489214283</v>
+        <v>1.051659362681398</v>
       </c>
       <c r="J21">
-        <v>1.05215758425624</v>
+        <v>1.034469681424497</v>
       </c>
       <c r="K21">
-        <v>1.056963059489745</v>
+        <v>1.041751339042921</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.063700633902233</v>
+        <v>1.039798705944807</v>
       </c>
       <c r="N21">
-        <v>1.021121799825972</v>
+        <v>1.0145199516831</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04488542726557</v>
+        <v>1.000862789218999</v>
       </c>
       <c r="D22">
-        <v>1.052821155616698</v>
+        <v>1.023774182901604</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.059456325144076</v>
+        <v>1.021226799194879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047150660885262</v>
+        <v>1.049846500179484</v>
       </c>
       <c r="J22">
-        <v>1.051649134076204</v>
+        <v>1.031565160109706</v>
       </c>
       <c r="K22">
-        <v>1.056466414910661</v>
+        <v>1.038888936410432</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.063077011782234</v>
+        <v>1.036389160056416</v>
       </c>
       <c r="N22">
-        <v>1.020947704370785</v>
+        <v>1.013513502458643</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045285700716057</v>
+        <v>1.003167113766811</v>
       </c>
       <c r="D23">
-        <v>1.053152768657738</v>
+        <v>1.025635837620304</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.059854949808335</v>
+        <v>1.023386304116681</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047286954515853</v>
+        <v>1.050813507769609</v>
       </c>
       <c r="J23">
-        <v>1.051918752875603</v>
+        <v>1.033113209263162</v>
       </c>
       <c r="K23">
-        <v>1.05672977994295</v>
+        <v>1.04041453187184</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.063407644542844</v>
+        <v>1.038205861417545</v>
       </c>
       <c r="N23">
-        <v>1.021040035811134</v>
+        <v>1.014049935741133</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.0468610605277</v>
+        <v>1.011984271613827</v>
       </c>
       <c r="D24">
-        <v>1.054457865634568</v>
+        <v>1.032769150700866</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.061424783224505</v>
+        <v>1.03166613198577</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047820335822362</v>
+        <v>1.054491395985429</v>
       </c>
       <c r="J24">
-        <v>1.052978450515716</v>
+        <v>1.039028675493676</v>
       </c>
       <c r="K24">
-        <v>1.057764754401943</v>
+        <v>1.046244244949335</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.064708454448304</v>
+        <v>1.045159075040673</v>
       </c>
       <c r="N24">
-        <v>1.021402646043802</v>
+        <v>1.016099346042015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048688213046016</v>
+        <v>1.021735495170115</v>
       </c>
       <c r="D25">
-        <v>1.05597146288888</v>
+        <v>1.040675501327592</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.063247501822515</v>
+        <v>1.040854838713064</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048432684615081</v>
+        <v>1.058511810395848</v>
       </c>
       <c r="J25">
-        <v>1.054204521935244</v>
+        <v>1.045552878996117</v>
       </c>
       <c r="K25">
-        <v>1.058961919765874</v>
+        <v>1.052673570545694</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.066216198291762</v>
+        <v>1.052850392683519</v>
       </c>
       <c r="N25">
-        <v>1.021821592388107</v>
+        <v>1.018358401664999</v>
       </c>
     </row>
   </sheetData>
